--- a/ipc-webscraping/data/data_indices.xlsx
+++ b/ipc-webscraping/data/data_indices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1260"/>
+  <dimension ref="A1:E1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25614,7 +25614,7 @@
         </is>
       </c>
       <c r="D1172" t="n">
-        <v>110.3114208625677</v>
+        <v>108.0129555210738</v>
       </c>
       <c r="E1172" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         </is>
       </c>
       <c r="D1173" t="n">
-        <v>106.371217696628</v>
+        <v>101.8096345425605</v>
       </c>
       <c r="E1173" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         </is>
       </c>
       <c r="D1174" t="n">
-        <v>114.5660936503254</v>
+        <v>110.9754137966082</v>
       </c>
       <c r="E1174" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         </is>
       </c>
       <c r="D1177" t="n">
-        <v>113.6312393984283</v>
+        <v>111.7834153793799</v>
       </c>
       <c r="E1177" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         </is>
       </c>
       <c r="D1178" t="n">
-        <v>144.1303283367444</v>
+        <v>116.0121618183976</v>
       </c>
       <c r="E1178" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         </is>
       </c>
       <c r="D1179" t="n">
-        <v>101.711117284387</v>
+        <v>99.60069410025567</v>
       </c>
       <c r="E1179" t="inlineStr">
         <is>
@@ -25782,7 +25782,7 @@
         </is>
       </c>
       <c r="D1180" t="n">
-        <v>128.5684182999855</v>
+        <v>106.5426345631955</v>
       </c>
       <c r="E1180" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         </is>
       </c>
       <c r="D1181" t="n">
-        <v>109.6235800736835</v>
+        <v>105.5311031440952</v>
       </c>
       <c r="E1181" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         </is>
       </c>
       <c r="D1182" t="n">
-        <v>96.40813973124726</v>
+        <v>99.79880657518346</v>
       </c>
       <c r="E1182" t="inlineStr">
         <is>
@@ -25887,7 +25887,7 @@
         </is>
       </c>
       <c r="D1185" t="n">
-        <v>115.9299491638236</v>
+        <v>110.9621563666594</v>
       </c>
       <c r="E1185" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         </is>
       </c>
       <c r="D1186" t="n">
-        <v>109.5712582619548</v>
+        <v>102.7334243300129</v>
       </c>
       <c r="E1186" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         </is>
       </c>
       <c r="D1187" t="n">
-        <v>104.7979511910816</v>
+        <v>94.5810459456292</v>
       </c>
       <c r="E1187" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         </is>
       </c>
       <c r="D1190" t="n">
-        <v>105.0710903522881</v>
+        <v>103.6890440580877</v>
       </c>
       <c r="E1190" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         </is>
       </c>
       <c r="D1191" t="n">
-        <v>121.1329094213949</v>
+        <v>108.7196411323039</v>
       </c>
       <c r="E1191" t="inlineStr">
         <is>
@@ -26026,15 +26026,15 @@
         <v>1190</v>
       </c>
       <c r="B1192" s="2" t="n">
-        <v>45981</v>
+        <v>45959</v>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>alquiler</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1192" t="n">
-        <v>108.1725541438047</v>
+        <v>100</v>
       </c>
       <c r="E1192" t="inlineStr">
         <is>
@@ -26047,15 +26047,15 @@
         <v>1191</v>
       </c>
       <c r="B1193" s="2" t="n">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1193" t="n">
-        <v>100</v>
+        <v>103.3768221511905</v>
       </c>
       <c r="E1193" t="inlineStr">
         <is>
@@ -26068,15 +26068,15 @@
         <v>1192</v>
       </c>
       <c r="B1194" s="2" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1194" t="n">
-        <v>97.47311992852865</v>
+        <v>108.0129555210738</v>
       </c>
       <c r="E1194" t="inlineStr">
         <is>
@@ -26089,15 +26089,15 @@
         <v>1193</v>
       </c>
       <c r="B1195" s="2" t="n">
-        <v>45961</v>
+        <v>45962</v>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1195" t="n">
-        <v>84.53380350514276</v>
+        <v>101.8096345425605</v>
       </c>
       <c r="E1195" t="inlineStr">
         <is>
@@ -26110,15 +26110,15 @@
         <v>1194</v>
       </c>
       <c r="B1196" s="2" t="n">
-        <v>45962</v>
+        <v>45963</v>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1196" t="n">
-        <v>93.07361335035856</v>
+        <v>110.9754137966082</v>
       </c>
       <c r="E1196" t="inlineStr">
         <is>
@@ -26131,15 +26131,15 @@
         <v>1195</v>
       </c>
       <c r="B1197" s="2" t="n">
-        <v>45963</v>
+        <v>45964</v>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1197" t="n">
-        <v>97.54747881180343</v>
+        <v>105.805488328894</v>
       </c>
       <c r="E1197" t="inlineStr">
         <is>
@@ -26152,15 +26152,15 @@
         <v>1196</v>
       </c>
       <c r="B1198" s="2" t="n">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1198" t="n">
-        <v>102.5689837184847</v>
+        <v>108.2422712871739</v>
       </c>
       <c r="E1198" t="inlineStr">
         <is>
@@ -26173,15 +26173,15 @@
         <v>1197</v>
       </c>
       <c r="B1199" s="2" t="n">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1199" t="n">
-        <v>87.61182219011245</v>
+        <v>111.7834153793799</v>
       </c>
       <c r="E1199" t="inlineStr">
         <is>
@@ -26194,15 +26194,15 @@
         <v>1198</v>
       </c>
       <c r="B1200" s="2" t="n">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1200" t="n">
-        <v>111.7405404114287</v>
+        <v>116.0121618183976</v>
       </c>
       <c r="E1200" t="inlineStr">
         <is>
@@ -26215,15 +26215,15 @@
         <v>1199</v>
       </c>
       <c r="B1201" s="2" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1201" t="n">
-        <v>101.4032317163634</v>
+        <v>99.60069410025565</v>
       </c>
       <c r="E1201" t="inlineStr">
         <is>
@@ -26236,15 +26236,15 @@
         <v>1200</v>
       </c>
       <c r="B1202" s="2" t="n">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1202" t="n">
-        <v>95.40869408711082</v>
+        <v>106.5426345631955</v>
       </c>
       <c r="E1202" t="inlineStr">
         <is>
@@ -26257,15 +26257,15 @@
         <v>1201</v>
       </c>
       <c r="B1203" s="2" t="n">
-        <v>45969</v>
+        <v>45970</v>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1203" t="n">
-        <v>92.51532797648333</v>
+        <v>105.5311031440952</v>
       </c>
       <c r="E1203" t="inlineStr">
         <is>
@@ -26278,15 +26278,15 @@
         <v>1202</v>
       </c>
       <c r="B1204" s="2" t="n">
-        <v>45970</v>
+        <v>45971</v>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1204" t="n">
-        <v>101.2843426614238</v>
+        <v>99.79880657518349</v>
       </c>
       <c r="E1204" t="inlineStr">
         <is>
@@ -26299,15 +26299,15 @@
         <v>1203</v>
       </c>
       <c r="B1205" s="2" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1205" t="n">
-        <v>99.11259961869607</v>
+        <v>113.9530459723771</v>
       </c>
       <c r="E1205" t="inlineStr">
         <is>
@@ -26320,15 +26320,15 @@
         <v>1204</v>
       </c>
       <c r="B1206" s="2" t="n">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1206" t="n">
-        <v>92.67867923313514</v>
+        <v>109.725377363129</v>
       </c>
       <c r="E1206" t="inlineStr">
         <is>
@@ -26341,15 +26341,15 @@
         <v>1205</v>
       </c>
       <c r="B1207" s="2" t="n">
-        <v>45973</v>
+        <v>45974</v>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1207" t="n">
-        <v>103.4238209389561</v>
+        <v>110.9621563666594</v>
       </c>
       <c r="E1207" t="inlineStr">
         <is>
@@ -26362,15 +26362,15 @@
         <v>1206</v>
       </c>
       <c r="B1208" s="2" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1208" t="n">
-        <v>98.36850410029302</v>
+        <v>102.7334243300129</v>
       </c>
       <c r="E1208" t="inlineStr">
         <is>
@@ -26383,15 +26383,15 @@
         <v>1207</v>
       </c>
       <c r="B1209" s="2" t="n">
-        <v>45975</v>
+        <v>45976</v>
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1209" t="n">
-        <v>98.13405947589432</v>
+        <v>94.58104594562923</v>
       </c>
       <c r="E1209" t="inlineStr">
         <is>
@@ -26404,15 +26404,15 @@
         <v>1208</v>
       </c>
       <c r="B1210" s="2" t="n">
-        <v>45976</v>
+        <v>45977</v>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1210" t="n">
-        <v>81.14121115656232</v>
+        <v>110.5676460532396</v>
       </c>
       <c r="E1210" t="inlineStr">
         <is>
@@ -26425,15 +26425,15 @@
         <v>1209</v>
       </c>
       <c r="B1211" s="2" t="n">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1211" t="n">
-        <v>106.9382496740471</v>
+        <v>106.7310677143209</v>
       </c>
       <c r="E1211" t="inlineStr">
         <is>
@@ -26446,15 +26446,15 @@
         <v>1210</v>
       </c>
       <c r="B1212" s="2" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1212" t="n">
-        <v>96.63222792590166</v>
+        <v>103.6890440580877</v>
       </c>
       <c r="E1212" t="inlineStr">
         <is>
@@ -26467,15 +26467,15 @@
         <v>1211</v>
       </c>
       <c r="B1213" s="2" t="n">
-        <v>45979</v>
+        <v>45980</v>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>Índice Vivienda</t>
         </is>
       </c>
       <c r="D1213" t="n">
-        <v>100.1228117856345</v>
+        <v>108.7196411323039</v>
       </c>
       <c r="E1213" t="inlineStr">
         <is>
@@ -26488,19 +26488,19 @@
         <v>1212</v>
       </c>
       <c r="B1214" s="2" t="n">
-        <v>45980</v>
+        <v>45959</v>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1214" t="n">
-        <v>92.58779762949824</v>
+        <v>100</v>
       </c>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>Alojamiento</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -26509,19 +26509,19 @@
         <v>1213</v>
       </c>
       <c r="B1215" s="2" t="n">
-        <v>45981</v>
+        <v>45960</v>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>venta</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1215" t="n">
-        <v>99.78786144142646</v>
+        <v>100.5284674687271</v>
       </c>
       <c r="E1215" t="inlineStr">
         <is>
-          <t>Alojamiento</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -26530,19 +26530,19 @@
         <v>1214</v>
       </c>
       <c r="B1216" s="2" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>Índice Vivienda</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1216" t="n">
-        <v>100</v>
+        <v>100.8773635387955</v>
       </c>
       <c r="E1216" t="inlineStr">
         <is>
-          <t>Alojamiento</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -26551,19 +26551,19 @@
         <v>1215</v>
       </c>
       <c r="B1217" s="2" t="n">
-        <v>45960</v>
+        <v>45962</v>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>Índice Vivienda</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1217" t="n">
-        <v>103.3768221511905</v>
+        <v>100.1646905280162</v>
       </c>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>Alojamiento</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -26572,19 +26572,19 @@
         <v>1216</v>
       </c>
       <c r="B1218" s="2" t="n">
-        <v>45961</v>
+        <v>45963</v>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>Índice Vivienda</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1218" t="n">
-        <v>110.3114208625677</v>
+        <v>101.6967475788714</v>
       </c>
       <c r="E1218" t="inlineStr">
         <is>
-          <t>Alojamiento</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -26593,19 +26593,19 @@
         <v>1217</v>
       </c>
       <c r="B1219" s="2" t="n">
-        <v>45962</v>
+        <v>45964</v>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>Índice Vivienda</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1219" t="n">
-        <v>106.371217696628</v>
+        <v>100.7654275387683</v>
       </c>
       <c r="E1219" t="inlineStr">
         <is>
-          <t>Alojamiento</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -26614,19 +26614,19 @@
         <v>1218</v>
       </c>
       <c r="B1220" s="2" t="n">
-        <v>45963</v>
+        <v>45965</v>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>Índice Vivienda</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1220" t="n">
-        <v>114.5660936503254</v>
+        <v>101.0948781779496</v>
       </c>
       <c r="E1220" t="inlineStr">
         <is>
-          <t>Alojamiento</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -26635,19 +26635,19 @@
         <v>1219</v>
       </c>
       <c r="B1221" s="2" t="n">
-        <v>45964</v>
+        <v>45966</v>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>Índice Vivienda</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1221" t="n">
-        <v>105.805488328894</v>
+        <v>101.6528692179867</v>
       </c>
       <c r="E1221" t="inlineStr">
         <is>
-          <t>Alojamiento</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -26656,19 +26656,19 @@
         <v>1220</v>
       </c>
       <c r="B1222" s="2" t="n">
-        <v>45965</v>
+        <v>45967</v>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>Índice Vivienda</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1222" t="n">
-        <v>108.2422712871739</v>
+        <v>102.1984437228625</v>
       </c>
       <c r="E1222" t="inlineStr">
         <is>
-          <t>Alojamiento</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -26677,19 +26677,19 @@
         <v>1221</v>
       </c>
       <c r="B1223" s="2" t="n">
-        <v>45966</v>
+        <v>45968</v>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>Índice Vivienda</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1223" t="n">
-        <v>113.6312393984283</v>
+        <v>99.70730313789466</v>
       </c>
       <c r="E1223" t="inlineStr">
         <is>
-          <t>Alojamiento</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -26698,19 +26698,19 @@
         <v>1222</v>
       </c>
       <c r="B1224" s="2" t="n">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>Índice Vivienda</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1224" t="n">
-        <v>144.1303283367444</v>
+        <v>100.6915953681603</v>
       </c>
       <c r="E1224" t="inlineStr">
         <is>
-          <t>Alojamiento</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -26719,19 +26719,19 @@
         <v>1223</v>
       </c>
       <c r="B1225" s="2" t="n">
-        <v>45968</v>
+        <v>45970</v>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>Índice Vivienda</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1225" t="n">
-        <v>101.711117284387</v>
+        <v>100.4876169857287</v>
       </c>
       <c r="E1225" t="inlineStr">
         <is>
-          <t>Alojamiento</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -26740,19 +26740,19 @@
         <v>1224</v>
       </c>
       <c r="B1226" s="2" t="n">
-        <v>45969</v>
+        <v>45971</v>
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>Índice Vivienda</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1226" t="n">
-        <v>128.5684182999855</v>
+        <v>99.71496249945044</v>
       </c>
       <c r="E1226" t="inlineStr">
         <is>
-          <t>Alojamiento</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -26761,19 +26761,19 @@
         <v>1225</v>
       </c>
       <c r="B1227" s="2" t="n">
-        <v>45970</v>
+        <v>45972</v>
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>Índice Vivienda</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1227" t="n">
-        <v>109.6235800736835</v>
+        <v>102.1832450744516</v>
       </c>
       <c r="E1227" t="inlineStr">
         <is>
-          <t>Alojamiento</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -26782,19 +26782,19 @@
         <v>1226</v>
       </c>
       <c r="B1228" s="2" t="n">
-        <v>45971</v>
+        <v>45973</v>
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>Índice Vivienda</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1228" t="n">
-        <v>96.4081397312473</v>
+        <v>101.7204224102446</v>
       </c>
       <c r="E1228" t="inlineStr">
         <is>
-          <t>Alojamiento</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -26803,19 +26803,19 @@
         <v>1227</v>
       </c>
       <c r="B1229" s="2" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Índice Vivienda</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1229" t="n">
-        <v>113.9530459723771</v>
+        <v>101.8000537867105</v>
       </c>
       <c r="E1229" t="inlineStr">
         <is>
-          <t>Alojamiento</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -26824,19 +26824,19 @@
         <v>1228</v>
       </c>
       <c r="B1230" s="2" t="n">
-        <v>45973</v>
+        <v>45975</v>
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>Índice Vivienda</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1230" t="n">
-        <v>109.725377363129</v>
+        <v>100.4985129770359</v>
       </c>
       <c r="E1230" t="inlineStr">
         <is>
-          <t>Alojamiento</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -26845,19 +26845,19 @@
         <v>1229</v>
       </c>
       <c r="B1231" s="2" t="n">
-        <v>45974</v>
+        <v>45976</v>
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>Índice Vivienda</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1231" t="n">
-        <v>115.9299491638236</v>
+        <v>99.03493891784615</v>
       </c>
       <c r="E1231" t="inlineStr">
         <is>
-          <t>Alojamiento</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -26866,19 +26866,19 @@
         <v>1230</v>
       </c>
       <c r="B1232" s="2" t="n">
-        <v>45975</v>
+        <v>45977</v>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>Índice Vivienda</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1232" t="n">
-        <v>109.5712582619548</v>
+        <v>101.5514995183546</v>
       </c>
       <c r="E1232" t="inlineStr">
         <is>
-          <t>Alojamiento</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -26887,19 +26887,19 @@
         <v>1231</v>
       </c>
       <c r="B1233" s="2" t="n">
-        <v>45976</v>
+        <v>45978</v>
       </c>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>Índice Vivienda</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1233" t="n">
-        <v>104.7979511910816</v>
+        <v>101.0051079144921</v>
       </c>
       <c r="E1233" t="inlineStr">
         <is>
-          <t>Alojamiento</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -26908,19 +26908,19 @@
         <v>1232</v>
       </c>
       <c r="B1234" s="2" t="n">
-        <v>45977</v>
+        <v>45979</v>
       </c>
       <c r="C1234" t="inlineStr">
         <is>
-          <t>Índice Vivienda</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1234" t="n">
-        <v>110.5676460532396</v>
+        <v>100.210268353128</v>
       </c>
       <c r="E1234" t="inlineStr">
         <is>
-          <t>Alojamiento</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -26929,542 +26929,17 @@
         <v>1233</v>
       </c>
       <c r="B1235" s="2" t="n">
-        <v>45978</v>
+        <v>45980</v>
       </c>
       <c r="C1235" t="inlineStr">
         <is>
-          <t>Índice Vivienda</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="D1235" t="n">
-        <v>106.7310677143209</v>
+        <v>101.7475305198526</v>
       </c>
       <c r="E1235" t="inlineStr">
-        <is>
-          <t>Alojamiento</t>
-        </is>
-      </c>
-    </row>
-    <row r="1236">
-      <c r="A1236" s="1" t="n">
-        <v>1234</v>
-      </c>
-      <c r="B1236" s="2" t="n">
-        <v>45979</v>
-      </c>
-      <c r="C1236" t="inlineStr">
-        <is>
-          <t>Índice Vivienda</t>
-        </is>
-      </c>
-      <c r="D1236" t="n">
-        <v>105.0710903522881</v>
-      </c>
-      <c r="E1236" t="inlineStr">
-        <is>
-          <t>Alojamiento</t>
-        </is>
-      </c>
-    </row>
-    <row r="1237">
-      <c r="A1237" s="1" t="n">
-        <v>1235</v>
-      </c>
-      <c r="B1237" s="2" t="n">
-        <v>45980</v>
-      </c>
-      <c r="C1237" t="inlineStr">
-        <is>
-          <t>Índice Vivienda</t>
-        </is>
-      </c>
-      <c r="D1237" t="n">
-        <v>121.1329094213949</v>
-      </c>
-      <c r="E1237" t="inlineStr">
-        <is>
-          <t>Alojamiento</t>
-        </is>
-      </c>
-    </row>
-    <row r="1238">
-      <c r="A1238" s="1" t="n">
-        <v>1236</v>
-      </c>
-      <c r="B1238" s="2" t="n">
-        <v>45981</v>
-      </c>
-      <c r="C1238" t="inlineStr">
-        <is>
-          <t>Índice Vivienda</t>
-        </is>
-      </c>
-      <c r="D1238" t="n">
-        <v>108.1725541438047</v>
-      </c>
-      <c r="E1238" t="inlineStr">
-        <is>
-          <t>Alojamiento</t>
-        </is>
-      </c>
-    </row>
-    <row r="1239">
-      <c r="A1239" s="1" t="n">
-        <v>1237</v>
-      </c>
-      <c r="B1239" s="2" t="n">
-        <v>45959</v>
-      </c>
-      <c r="C1239" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1239" t="n">
-        <v>100</v>
-      </c>
-      <c r="E1239" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="1240">
-      <c r="A1240" s="1" t="n">
-        <v>1238</v>
-      </c>
-      <c r="B1240" s="2" t="n">
-        <v>45960</v>
-      </c>
-      <c r="C1240" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1240" t="n">
-        <v>100.5284674687271</v>
-      </c>
-      <c r="E1240" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="1241">
-      <c r="A1241" s="1" t="n">
-        <v>1239</v>
-      </c>
-      <c r="B1241" s="2" t="n">
-        <v>45961</v>
-      </c>
-      <c r="C1241" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1241" t="n">
-        <v>101.2342602632943</v>
-      </c>
-      <c r="E1241" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="1242">
-      <c r="A1242" s="1" t="n">
-        <v>1240</v>
-      </c>
-      <c r="B1242" s="2" t="n">
-        <v>45962</v>
-      </c>
-      <c r="C1242" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1242" t="n">
-        <v>100.9037616911777</v>
-      </c>
-      <c r="E1242" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" s="1" t="n">
-        <v>1241</v>
-      </c>
-      <c r="B1243" s="2" t="n">
-        <v>45963</v>
-      </c>
-      <c r="C1243" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1243" t="n">
-        <v>102.2413557973508</v>
-      </c>
-      <c r="E1243" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="1244">
-      <c r="A1244" s="1" t="n">
-        <v>1242</v>
-      </c>
-      <c r="B1244" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="C1244" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1244" t="n">
-        <v>100.7654275387683</v>
-      </c>
-      <c r="E1244" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" s="1" t="n">
-        <v>1243</v>
-      </c>
-      <c r="B1245" s="2" t="n">
-        <v>45965</v>
-      </c>
-      <c r="C1245" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1245" t="n">
-        <v>101.0948781779496</v>
-      </c>
-      <c r="E1245" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" s="1" t="n">
-        <v>1244</v>
-      </c>
-      <c r="B1246" s="2" t="n">
-        <v>45966</v>
-      </c>
-      <c r="C1246" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1246" t="n">
-        <v>101.9327899359328</v>
-      </c>
-      <c r="E1246" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" s="1" t="n">
-        <v>1245</v>
-      </c>
-      <c r="B1247" s="2" t="n">
-        <v>45967</v>
-      </c>
-      <c r="C1247" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1247" t="n">
-        <v>105.9870374910869</v>
-      </c>
-      <c r="E1247" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" s="1" t="n">
-        <v>1246</v>
-      </c>
-      <c r="B1248" s="2" t="n">
-        <v>45968</v>
-      </c>
-      <c r="C1248" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1248" t="n">
-        <v>100.0585698523428</v>
-      </c>
-      <c r="E1248" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" s="1" t="n">
-        <v>1247</v>
-      </c>
-      <c r="B1249" s="2" t="n">
-        <v>45969</v>
-      </c>
-      <c r="C1249" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1249" t="n">
-        <v>103.9157730086533</v>
-      </c>
-      <c r="E1249" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="1250">
-      <c r="A1250" s="1" t="n">
-        <v>1248</v>
-      </c>
-      <c r="B1250" s="2" t="n">
-        <v>45970</v>
-      </c>
-      <c r="C1250" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1250" t="n">
-        <v>101.1309217312347</v>
-      </c>
-      <c r="E1250" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="1251">
-      <c r="A1251" s="1" t="n">
-        <v>1249</v>
-      </c>
-      <c r="B1251" s="2" t="n">
-        <v>45971</v>
-      </c>
-      <c r="C1251" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1251" t="n">
-        <v>99.13853334565739</v>
-      </c>
-      <c r="E1251" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="1252">
-      <c r="A1252" s="1" t="n">
-        <v>1250</v>
-      </c>
-      <c r="B1252" s="2" t="n">
-        <v>45972</v>
-      </c>
-      <c r="C1252" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1252" t="n">
-        <v>102.1832450744516</v>
-      </c>
-      <c r="E1252" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="1253">
-      <c r="A1253" s="1" t="n">
-        <v>1251</v>
-      </c>
-      <c r="B1253" s="2" t="n">
-        <v>45973</v>
-      </c>
-      <c r="C1253" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1253" t="n">
-        <v>101.7204224102446</v>
-      </c>
-      <c r="E1253" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="1254">
-      <c r="A1254" s="1" t="n">
-        <v>1252</v>
-      </c>
-      <c r="B1254" s="2" t="n">
-        <v>45974</v>
-      </c>
-      <c r="C1254" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1254" t="n">
-        <v>102.5506174971489</v>
-      </c>
-      <c r="E1254" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="1255">
-      <c r="A1255" s="1" t="n">
-        <v>1253</v>
-      </c>
-      <c r="B1255" s="2" t="n">
-        <v>45975</v>
-      </c>
-      <c r="C1255" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1255" t="n">
-        <v>101.5905762395391</v>
-      </c>
-      <c r="E1255" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="1256">
-      <c r="A1256" s="1" t="n">
-        <v>1254</v>
-      </c>
-      <c r="B1256" s="2" t="n">
-        <v>45976</v>
-      </c>
-      <c r="C1256" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1256" t="n">
-        <v>100.7535604512807</v>
-      </c>
-      <c r="E1256" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="1257">
-      <c r="A1257" s="1" t="n">
-        <v>1255</v>
-      </c>
-      <c r="B1257" s="2" t="n">
-        <v>45977</v>
-      </c>
-      <c r="C1257" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1257" t="n">
-        <v>101.5514995183546</v>
-      </c>
-      <c r="E1257" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="1258">
-      <c r="A1258" s="1" t="n">
-        <v>1256</v>
-      </c>
-      <c r="B1258" s="2" t="n">
-        <v>45978</v>
-      </c>
-      <c r="C1258" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1258" t="n">
-        <v>101.0051079144921</v>
-      </c>
-      <c r="E1258" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="1259">
-      <c r="A1259" s="1" t="n">
-        <v>1257</v>
-      </c>
-      <c r="B1259" s="2" t="n">
-        <v>45979</v>
-      </c>
-      <c r="C1259" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1259" t="n">
-        <v>100.4330635716673</v>
-      </c>
-      <c r="E1259" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="1260">
-      <c r="A1260" s="1" t="n">
-        <v>1258</v>
-      </c>
-      <c r="B1260" s="2" t="n">
-        <v>45980</v>
-      </c>
-      <c r="C1260" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="D1260" t="n">
-        <v>103.6094335005483</v>
-      </c>
-      <c r="E1260" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
